--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2327,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.206597175676</v>
+        <v>169.7081476706894</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.2591429159932</v>
+        <v>232.2021746380017</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.8645861184556</v>
+        <v>210.0411249884167</v>
       </c>
       <c r="AD2" t="n">
-        <v>133206.597175676</v>
+        <v>169708.1476706894</v>
       </c>
       <c r="AE2" t="n">
-        <v>182259.1429159932</v>
+        <v>232202.1746380017</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.495300614085858e-06</v>
+        <v>4.616959441765024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.087239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164864.5861184556</v>
+        <v>210041.1249884167</v>
       </c>
     </row>
     <row r="3">
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.0031854135737</v>
+        <v>132.3944761494808</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.7747230470489</v>
+        <v>181.1479630997024</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.6713108826051</v>
+        <v>163.8594557442806</v>
       </c>
       <c r="AD3" t="n">
-        <v>108003.1854135737</v>
+        <v>132394.4761494808</v>
       </c>
       <c r="AE3" t="n">
-        <v>147774.7230470489</v>
+        <v>181147.9630997024</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.001367857724969e-06</v>
+        <v>5.553316338203955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.065104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>133671.3108826051</v>
+        <v>163859.4557442806</v>
       </c>
     </row>
     <row r="4">
@@ -2539,28 +2539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.37311865272596</v>
+        <v>127.8745796391884</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.0207320381026</v>
+        <v>174.9636412905626</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.0889288401184</v>
+        <v>158.265356928853</v>
       </c>
       <c r="AD4" t="n">
-        <v>91373.11865272597</v>
+        <v>127874.5796391884</v>
       </c>
       <c r="AE4" t="n">
-        <v>125020.7320381025</v>
+        <v>174963.6412905626</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.195522524603347e-06</v>
+        <v>5.912553304422258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>113088.9288401184</v>
+        <v>158265.356928853</v>
       </c>
     </row>
     <row r="5">
@@ -2645,28 +2645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.62265947356298</v>
+        <v>113.0992015554906</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.2574324474785</v>
+        <v>154.7473171527813</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.6847932805982</v>
+        <v>139.9784503929859</v>
       </c>
       <c r="AD5" t="n">
-        <v>88622.65947356298</v>
+        <v>113099.2015554906</v>
       </c>
       <c r="AE5" t="n">
-        <v>121257.4324474785</v>
+        <v>154747.3171527813</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.302519999112903e-06</v>
+        <v>6.110526645747661e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.602864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>109684.7932805982</v>
+        <v>139978.4503929859</v>
       </c>
     </row>
     <row r="6">
@@ -2751,28 +2751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.88465606865309</v>
+        <v>111.3611981505807</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.8794195135832</v>
+        <v>152.369304218886</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.533734563551</v>
+        <v>137.8273916759387</v>
       </c>
       <c r="AD6" t="n">
-        <v>86884.65606865309</v>
+        <v>111361.1981505807</v>
       </c>
       <c r="AE6" t="n">
-        <v>118879.4195135832</v>
+        <v>152369.304218886</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.349786553624651e-06</v>
+        <v>6.197982146660388e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>107533.734563551</v>
+        <v>137827.3916759387</v>
       </c>
     </row>
     <row r="7">
@@ -2857,28 +2857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.17596911294625</v>
+        <v>110.4819189942817</v>
       </c>
       <c r="AB7" t="n">
-        <v>117.9097627557237</v>
+        <v>151.1662356861796</v>
       </c>
       <c r="AC7" t="n">
-        <v>106.6566204857395</v>
+        <v>136.7391423154762</v>
       </c>
       <c r="AD7" t="n">
-        <v>86175.96911294624</v>
+        <v>110481.9189942817</v>
       </c>
       <c r="AE7" t="n">
-        <v>117909.7627557237</v>
+        <v>151166.2356861796</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.387879895334859e-06</v>
+        <v>6.268464802210793e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.485677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>106656.6204857395</v>
+        <v>136739.1423154762</v>
       </c>
     </row>
   </sheetData>
@@ -3154,28 +3154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.3740104708321</v>
+        <v>141.4945546683911</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.5456140162651</v>
+        <v>193.5990919963994</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.6549448891444</v>
+        <v>175.12226637435</v>
       </c>
       <c r="AD2" t="n">
-        <v>106374.0104708321</v>
+        <v>141494.5546683911</v>
       </c>
       <c r="AE2" t="n">
-        <v>145545.6140162651</v>
+        <v>193599.0919963994</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.909697189711722e-06</v>
+        <v>5.546331904137106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>131654.9448891444</v>
+        <v>175122.26637435</v>
       </c>
     </row>
     <row r="3">
@@ -3260,28 +3260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.54509878374736</v>
+        <v>121.750894327327</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.4148222561653</v>
+        <v>166.5849448889489</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.1134778163146</v>
+        <v>150.6863115522323</v>
       </c>
       <c r="AD3" t="n">
-        <v>86545.09878374737</v>
+        <v>121750.894327327</v>
       </c>
       <c r="AE3" t="n">
-        <v>118414.8222561653</v>
+        <v>166584.9448889489</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.338852292139453e-06</v>
+        <v>6.364367761900702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.70703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>107113.4778163146</v>
+        <v>150686.3115522323</v>
       </c>
     </row>
     <row r="4">
@@ -3366,28 +3366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.96115288842132</v>
+        <v>106.4033258078349</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.5111093696488</v>
+        <v>145.5857245536537</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.6777684052814</v>
+        <v>131.6912273331402</v>
       </c>
       <c r="AD4" t="n">
-        <v>82961.15288842132</v>
+        <v>106403.3258078349</v>
       </c>
       <c r="AE4" t="n">
-        <v>113511.1093696488</v>
+        <v>145585.7245536537</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.514759281459546e-06</v>
+        <v>6.699673631692395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.47265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>102677.7684052814</v>
+        <v>131691.2273331402</v>
       </c>
     </row>
     <row r="5">
@@ -3472,28 +3472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.54783745223034</v>
+        <v>104.9900103716439</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.5773488387767</v>
+        <v>143.6519640227816</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.9285632654251</v>
+        <v>129.942022193284</v>
       </c>
       <c r="AD5" t="n">
-        <v>81547.83745223033</v>
+        <v>104990.0103716439</v>
       </c>
       <c r="AE5" t="n">
-        <v>111577.3488387767</v>
+        <v>143651.9640227816</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.563317820309609e-06</v>
+        <v>6.79223370089639e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.4140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>100928.5632654251</v>
+        <v>129942.022193284</v>
       </c>
     </row>
   </sheetData>
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.15588393441607</v>
+        <v>89.99751757077698</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.62213134130631</v>
+        <v>123.1385739505442</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.59152792911068</v>
+        <v>111.3864012788106</v>
       </c>
       <c r="AD2" t="n">
-        <v>69155.88393441607</v>
+        <v>89997.51757077698</v>
       </c>
       <c r="AE2" t="n">
-        <v>94622.13134130632</v>
+        <v>123138.5739505442</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.060531999496122e-06</v>
+        <v>8.647870505787778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85591.52792911069</v>
+        <v>111386.4012788106</v>
       </c>
     </row>
     <row r="3">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.61458484892846</v>
+        <v>89.45621848528937</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.88150205211227</v>
+        <v>122.3979446613502</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.92158325979734</v>
+        <v>110.7164566094973</v>
       </c>
       <c r="AD3" t="n">
-        <v>68614.58484892845</v>
+        <v>89456.21848528937</v>
       </c>
       <c r="AE3" t="n">
-        <v>93881.50205211226</v>
+        <v>122397.9446613502</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.107818607321551e-06</v>
+        <v>8.748578605411921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>84921.58325979735</v>
+        <v>110716.4566094973</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.65611200201201</v>
+        <v>111.486159286041</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.6207625038669</v>
+        <v>152.5402815573188</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.34958797721401</v>
+        <v>137.9820511771598</v>
       </c>
       <c r="AD2" t="n">
-        <v>78656.11200201201</v>
+        <v>111486.159286041</v>
       </c>
       <c r="AE2" t="n">
-        <v>107620.7625038669</v>
+        <v>152540.2815573188</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.548715508795071e-06</v>
+        <v>7.205119386165718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.7265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>97349.58797721402</v>
+        <v>137982.0511771598</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.03031976222636</v>
+        <v>94.88866050860618</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.92330536895889</v>
+        <v>129.8308515000761</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.38676534781028</v>
+        <v>117.4399772516878</v>
       </c>
       <c r="AD3" t="n">
-        <v>73030.31976222635</v>
+        <v>94888.66050860618</v>
       </c>
       <c r="AE3" t="n">
-        <v>99923.3053689589</v>
+        <v>129830.8515000761</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.934330582277701e-06</v>
+        <v>7.988051304675803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.264322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>90386.76534781029</v>
+        <v>117439.9772516878</v>
       </c>
     </row>
   </sheetData>
@@ -4575,28 +4575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.92999267364691</v>
+        <v>84.93771792161304</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.8400804851602</v>
+        <v>116.2155328479554</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.36130789151397</v>
+        <v>105.1240855025014</v>
       </c>
       <c r="AD2" t="n">
-        <v>64929.99267364691</v>
+        <v>84937.71792161305</v>
       </c>
       <c r="AE2" t="n">
-        <v>88840.0804851602</v>
+        <v>116215.5328479554</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.222325133383564e-06</v>
+        <v>9.402293350437301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.31640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>80361.30789151398</v>
+        <v>105124.0855025014</v>
       </c>
     </row>
   </sheetData>
@@ -4872,28 +4872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.5657342091454</v>
+        <v>146.1974251919205</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.2809153608225</v>
+        <v>200.0337669226937</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.8428771229251</v>
+        <v>180.9428249568037</v>
       </c>
       <c r="AD2" t="n">
-        <v>110565.7342091454</v>
+        <v>146197.4251919205</v>
       </c>
       <c r="AE2" t="n">
-        <v>151280.9153608225</v>
+        <v>200033.7669226937</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.773986142904702e-06</v>
+        <v>5.244952216267384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.618489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136842.8771229251</v>
+        <v>180942.8249568037</v>
       </c>
     </row>
     <row r="3">
@@ -4978,28 +4978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.1506032030936</v>
+        <v>123.696953331297</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.6115442325698</v>
+        <v>169.2476286722434</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.1005477304103</v>
+        <v>153.0948725323502</v>
       </c>
       <c r="AD3" t="n">
-        <v>88150.60320309359</v>
+        <v>123696.953331297</v>
       </c>
       <c r="AE3" t="n">
-        <v>120611.5442325698</v>
+        <v>169247.6286722434</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.275908620302855e-06</v>
+        <v>6.193969000996974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>109100.5477304103</v>
+        <v>153094.8725323502</v>
       </c>
     </row>
     <row r="4">
@@ -5084,28 +5084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.16459975373429</v>
+        <v>109.0044012634893</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.5259625799835</v>
+        <v>149.1446307434286</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.4048882565957</v>
+        <v>134.9104765111203</v>
       </c>
       <c r="AD4" t="n">
-        <v>85164.59975373429</v>
+        <v>109004.4012634893</v>
       </c>
       <c r="AE4" t="n">
-        <v>116525.9625799835</v>
+        <v>149144.6307434286</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.425588005100255e-06</v>
+        <v>6.476977343713713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>105404.8882565957</v>
+        <v>134910.4765111203</v>
       </c>
     </row>
     <row r="5">
@@ -5190,28 +5190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.82642189004513</v>
+        <v>106.4956311992079</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.3267644737584</v>
+        <v>145.7120208623566</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.511017127525</v>
+        <v>131.8054700993985</v>
       </c>
       <c r="AD5" t="n">
-        <v>82826.42189004512</v>
+        <v>106495.6311992079</v>
       </c>
       <c r="AE5" t="n">
-        <v>113326.7644737584</v>
+        <v>145712.0208623566</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.503167631880937e-06</v>
+        <v>6.623662083455946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>102511.017127525</v>
+        <v>131805.4700993985</v>
       </c>
     </row>
     <row r="6">
@@ -5296,28 +5296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.00820728645334</v>
+        <v>106.6774165956162</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.5754912729297</v>
+        <v>145.9607476615279</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.7360057900737</v>
+        <v>132.0304587619473</v>
       </c>
       <c r="AD6" t="n">
-        <v>83008.20728645334</v>
+        <v>106677.4165956161</v>
       </c>
       <c r="AE6" t="n">
-        <v>113575.4912729297</v>
+        <v>145960.7476615279</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.490245670603464e-06</v>
+        <v>6.599229708545149e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.466145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>102736.0057900737</v>
+        <v>132030.4587619473</v>
       </c>
     </row>
   </sheetData>
@@ -5593,28 +5593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.90821719045603</v>
+        <v>82.42214381403272</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.07379807462054</v>
+        <v>112.7736133746686</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.85903559173362</v>
+        <v>102.0106579929797</v>
       </c>
       <c r="AD2" t="n">
-        <v>62908.21719045603</v>
+        <v>82422.14381403272</v>
       </c>
       <c r="AE2" t="n">
-        <v>86073.79807462054</v>
+        <v>112773.6133746686</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.253494036696498e-06</v>
+        <v>9.751418992130711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77859.03559173361</v>
+        <v>102010.6579929797</v>
       </c>
     </row>
   </sheetData>
@@ -5890,28 +5890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.14321461231039</v>
+        <v>120.9338854541751</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.2838760055556</v>
+        <v>165.4670773048154</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.4680113482249</v>
+        <v>149.6751316813912</v>
       </c>
       <c r="AD2" t="n">
-        <v>98143.21461231039</v>
+        <v>120933.8854541751</v>
       </c>
       <c r="AE2" t="n">
-        <v>134283.8760055556</v>
+        <v>165467.0773048154</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.200822360108566e-06</v>
+        <v>6.273567590658446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.05859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>121468.0113482249</v>
+        <v>149675.1316813912</v>
       </c>
     </row>
     <row r="3">
@@ -5996,28 +5996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.76167703871083</v>
+        <v>102.4670070260039</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.1334453611645</v>
+        <v>140.1998795382268</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.71790250567538</v>
+        <v>126.8193998069029</v>
       </c>
       <c r="AD3" t="n">
-        <v>79761.67703871083</v>
+        <v>102467.0070260039</v>
       </c>
       <c r="AE3" t="n">
-        <v>109133.4453611645</v>
+        <v>140199.8795382268</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.626441002696627e-06</v>
+        <v>7.107774248109419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.466145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>98717.90250567539</v>
+        <v>126819.3998069029</v>
       </c>
     </row>
     <row r="4">
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.59962739289981</v>
+        <v>100.3049573801929</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.1752336528688</v>
+        <v>137.241667829931</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.04201837094224</v>
+        <v>124.1435156721698</v>
       </c>
       <c r="AD4" t="n">
-        <v>77599.6273928998</v>
+        <v>100304.9573801929</v>
       </c>
       <c r="AE4" t="n">
-        <v>106175.2336528688</v>
+        <v>137241.667829931</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.724138244305424e-06</v>
+        <v>7.299259491493214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>96042.01837094224</v>
+        <v>124143.5156721698</v>
       </c>
     </row>
   </sheetData>
@@ -6399,28 +6399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.0295414931899</v>
+        <v>126.3213855337498</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.9695640134994</v>
+        <v>172.8384925934147</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.5156266761147</v>
+        <v>156.3430294406953</v>
       </c>
       <c r="AD2" t="n">
-        <v>103029.5414931899</v>
+        <v>126321.3855337498</v>
       </c>
       <c r="AE2" t="n">
-        <v>140969.5640134994</v>
+        <v>172838.4925934147</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.024185712942049e-06</v>
+        <v>5.814611188509173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.247395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>127515.6266761147</v>
+        <v>156343.0294406953</v>
       </c>
     </row>
     <row r="3">
@@ -6505,28 +6505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.073091374694</v>
+        <v>119.9253823181356</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.4007567787158</v>
+        <v>164.0871988220687</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.2916319212736</v>
+        <v>148.4269468643657</v>
       </c>
       <c r="AD3" t="n">
-        <v>85073.09137469401</v>
+        <v>119925.3823181356</v>
       </c>
       <c r="AE3" t="n">
-        <v>116400.7567787158</v>
+        <v>164087.1988220687</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.384484661259434e-06</v>
+        <v>6.507359086605769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>105291.6319212736</v>
+        <v>148426.9468643657</v>
       </c>
     </row>
     <row r="4">
@@ -6611,28 +6611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.79145203588537</v>
+        <v>103.9979552218737</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.5424289427646</v>
+        <v>142.2945904004823</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.99241467176887</v>
+        <v>128.7141944044106</v>
       </c>
       <c r="AD4" t="n">
-        <v>80791.45203588538</v>
+        <v>103997.9552218736</v>
       </c>
       <c r="AE4" t="n">
-        <v>110542.4289427646</v>
+        <v>142294.5904004823</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.587169578062023e-06</v>
+        <v>6.897062000662545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>99992.41467176887</v>
+        <v>128714.1944044106</v>
       </c>
     </row>
     <row r="5">
@@ -6717,28 +6717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.87531556054428</v>
+        <v>103.0818187465325</v>
       </c>
       <c r="AB5" t="n">
-        <v>109.2889306001147</v>
+        <v>141.0410920578324</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.85854845164515</v>
+        <v>127.5803281842869</v>
       </c>
       <c r="AD5" t="n">
-        <v>79875.31556054427</v>
+        <v>103081.8187465325</v>
       </c>
       <c r="AE5" t="n">
-        <v>109288.9306001147</v>
+        <v>141041.0920578324</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.642112669159201e-06</v>
+        <v>7.00270125120782e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.35546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>98858.54845164515</v>
+        <v>127580.3281842869</v>
       </c>
     </row>
   </sheetData>
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.4550650807666</v>
+        <v>153.7336313988747</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.7072017951971</v>
+        <v>210.3451367289963</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.3695320098822</v>
+        <v>190.2700921008945</v>
       </c>
       <c r="AD2" t="n">
-        <v>117455.0650807666</v>
+        <v>153733.6313988747</v>
       </c>
       <c r="AE2" t="n">
-        <v>160707.2017951972</v>
+        <v>210345.1367289963</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.582420865790025e-06</v>
+        <v>4.810854205578275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.930989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145369.5320098822</v>
+        <v>190270.0921008945</v>
       </c>
     </row>
     <row r="3">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.28918309872834</v>
+        <v>129.4824085622649</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.6423759439191</v>
+        <v>177.1635437555207</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.4603667310651</v>
+        <v>160.2553037901387</v>
       </c>
       <c r="AD3" t="n">
-        <v>93289.18309872835</v>
+        <v>129482.4085622649</v>
       </c>
       <c r="AE3" t="n">
-        <v>127642.3759439191</v>
+        <v>177163.5437555207</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.08474582761199e-06</v>
+        <v>5.746647509900437e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>115460.3667310651</v>
+        <v>160255.3037901387</v>
       </c>
     </row>
     <row r="4">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.89684579654823</v>
+        <v>125.0900712600847</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.6325862708336</v>
+        <v>171.1537540824352</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.0241429495841</v>
+        <v>154.8190800086577</v>
       </c>
       <c r="AD4" t="n">
-        <v>88896.84579654824</v>
+        <v>125090.0712600847</v>
       </c>
       <c r="AE4" t="n">
-        <v>121632.5862708336</v>
+        <v>171153.7540824352</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.294992940438271e-06</v>
+        <v>6.138321934604083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.6484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>110024.1429495841</v>
+        <v>154819.0800086577</v>
       </c>
     </row>
     <row r="5">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.51964797506614</v>
+        <v>110.7906997083765</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.3799993369172</v>
+        <v>151.5887230816477</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.0819783476052</v>
+        <v>137.1213081068856</v>
       </c>
       <c r="AD5" t="n">
-        <v>86519.64797506614</v>
+        <v>110790.6997083765</v>
       </c>
       <c r="AE5" t="n">
-        <v>118379.9993369172</v>
+        <v>151588.7230816477</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.382493949010443e-06</v>
+        <v>6.301329676935423e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>107081.9783476052</v>
+        <v>137121.3081068856</v>
       </c>
     </row>
     <row r="6">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.42543654817452</v>
+        <v>109.5258960808927</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.8828509894437</v>
+        <v>149.8581629593272</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.7277157371532</v>
+        <v>135.5559102137825</v>
       </c>
       <c r="AD6" t="n">
-        <v>85425.43654817452</v>
+        <v>109525.8960808927</v>
       </c>
       <c r="AE6" t="n">
-        <v>116882.8509894437</v>
+        <v>149858.1629593272</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.406586724696892e-06</v>
+        <v>6.346212690688393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>105727.7157371532</v>
+        <v>135555.9102137825</v>
       </c>
     </row>
     <row r="7">
@@ -7544,28 +7544,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.58990282199889</v>
+        <v>109.6903623547171</v>
       </c>
       <c r="AB7" t="n">
-        <v>117.10788100103</v>
+        <v>150.0831929709136</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.9312692002654</v>
+        <v>135.7594636768947</v>
       </c>
       <c r="AD7" t="n">
-        <v>85589.9028219989</v>
+        <v>109690.3623547171</v>
       </c>
       <c r="AE7" t="n">
-        <v>117107.88100103</v>
+        <v>150083.1929709135</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.404516251786339e-06</v>
+        <v>6.342355556693998e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>105931.2692002654</v>
+        <v>135759.4636768948</v>
       </c>
     </row>
   </sheetData>
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.90079193100431</v>
+        <v>115.1769015437594</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.0602767278877</v>
+        <v>157.5901179383835</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.365401194593</v>
+        <v>142.5499382615071</v>
       </c>
       <c r="AD2" t="n">
-        <v>81900.79193100431</v>
+        <v>115176.9015437594</v>
       </c>
       <c r="AE2" t="n">
-        <v>112060.2767278877</v>
+        <v>157590.1179383835</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391083375494014e-06</v>
+        <v>6.797417656641362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.889322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101365.401194593</v>
+        <v>142549.9382615071</v>
       </c>
     </row>
     <row r="3">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.76114429783274</v>
+        <v>96.91685993002996</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.2914958571637</v>
+        <v>132.6059234263101</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.52893905959783</v>
+        <v>119.9502002081209</v>
       </c>
       <c r="AD3" t="n">
-        <v>74761.14429783274</v>
+        <v>96916.85993002995</v>
       </c>
       <c r="AE3" t="n">
-        <v>102291.4958571637</v>
+        <v>132605.9234263101</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.863149671473837e-06</v>
+        <v>7.743673298300739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.290364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>92528.93905959783</v>
+        <v>119950.2002081209</v>
       </c>
     </row>
     <row r="4">
@@ -8053,28 +8053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.66934877189637</v>
+        <v>96.82506440409358</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.1658971688449</v>
+        <v>132.4803247379913</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.41532733381321</v>
+        <v>119.8365884823362</v>
       </c>
       <c r="AD4" t="n">
-        <v>74669.34877189637</v>
+        <v>96825.06440409359</v>
       </c>
       <c r="AE4" t="n">
-        <v>102165.8971688449</v>
+        <v>132480.3247379913</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.863786016637188e-06</v>
+        <v>7.744948850497521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.290364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>92415.32733381321</v>
+        <v>119836.5884823362</v>
       </c>
     </row>
   </sheetData>
@@ -8350,28 +8350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.37053644266916</v>
+        <v>93.57578311039239</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.02056072355545</v>
+        <v>128.0345147237778</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.57017738435378</v>
+        <v>115.8150803361444</v>
       </c>
       <c r="AD2" t="n">
-        <v>72370.53644266917</v>
+        <v>93575.7831103924</v>
       </c>
       <c r="AE2" t="n">
-        <v>99020.56072355545</v>
+        <v>128034.5147237779</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.876064802219399e-06</v>
+        <v>8.108969967261622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>89570.17738435378</v>
+        <v>115815.0803361444</v>
       </c>
     </row>
     <row r="3">
@@ -8456,28 +8456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.15916353193302</v>
+        <v>91.36441019965626</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.99486274820032</v>
+        <v>125.0088167484227</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.83324777717181</v>
+        <v>113.0781507289624</v>
       </c>
       <c r="AD3" t="n">
-        <v>70159.16353193302</v>
+        <v>91364.41019965627</v>
       </c>
       <c r="AE3" t="n">
-        <v>95994.86274820032</v>
+        <v>125008.8167484227</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.053340273141155e-06</v>
+        <v>8.479841338868614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>86833.24777717181</v>
+        <v>113078.1507289624</v>
       </c>
     </row>
   </sheetData>
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.84687627774601</v>
+        <v>87.29239533751314</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.46284519922345</v>
+        <v>119.4373063694243</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.73375962234125</v>
+        <v>108.0383774808699</v>
       </c>
       <c r="AD2" t="n">
-        <v>66846.87627774601</v>
+        <v>87292.39533751314</v>
       </c>
       <c r="AE2" t="n">
-        <v>91462.84519922345</v>
+        <v>119437.3063694243</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.168391016604035e-06</v>
+        <v>9.061480862464032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>82733.75962234125</v>
+        <v>108038.3774808699</v>
       </c>
     </row>
   </sheetData>
@@ -14847,28 +14847,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.76706553712648</v>
+        <v>79.87716107377899</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.1441799215923</v>
+        <v>109.2914557127408</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.20901608348454</v>
+        <v>98.86083257106618</v>
       </c>
       <c r="AD2" t="n">
-        <v>60767.06553712648</v>
+        <v>79877.16107377899</v>
       </c>
       <c r="AE2" t="n">
-        <v>83144.17992159229</v>
+        <v>109291.4557127408</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.211009885875128e-06</v>
+        <v>1.001600055721618e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>75209.01608348454</v>
+        <v>98860.83257106619</v>
       </c>
     </row>
   </sheetData>
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.562163642537</v>
+        <v>123.6087657533948</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.5935887852094</v>
+        <v>169.1269665375963</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.4618497854007</v>
+        <v>152.9857262224834</v>
       </c>
       <c r="AD2" t="n">
-        <v>100562.163642537</v>
+        <v>123608.7657533949</v>
       </c>
       <c r="AE2" t="n">
-        <v>137593.5887852095</v>
+        <v>169126.9665375963</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.108144025423528e-06</v>
+        <v>6.031596522620275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>124461.8497854007</v>
+        <v>152985.7262224834</v>
       </c>
     </row>
     <row r="3">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.14424516037087</v>
+        <v>105.2760986172493</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.3933801767053</v>
+        <v>144.0434025817414</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.6667137177693</v>
+        <v>130.2961024055642</v>
       </c>
       <c r="AD3" t="n">
-        <v>82144.24516037088</v>
+        <v>105276.0986172493</v>
       </c>
       <c r="AE3" t="n">
-        <v>112393.3801767053</v>
+        <v>144043.4025817414</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.521918206884714e-06</v>
+        <v>6.834557676813014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>101666.7137177693</v>
+        <v>130296.1024055642</v>
       </c>
     </row>
     <row r="4">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.71030665816684</v>
+        <v>101.6715679144531</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.6949140233173</v>
+        <v>139.1115246535066</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.41666257972049</v>
+        <v>125.8349159848644</v>
       </c>
       <c r="AD4" t="n">
-        <v>78710.30665816684</v>
+        <v>101671.5679144531</v>
       </c>
       <c r="AE4" t="n">
-        <v>107694.9140233173</v>
+        <v>139111.5246535066</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.685955653845853e-06</v>
+        <v>7.152885169547362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>97416.66257972049</v>
+        <v>125834.9159848644</v>
       </c>
     </row>
     <row r="5">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.70725973197221</v>
+        <v>101.6685209882585</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.6907450844769</v>
+        <v>139.1073557146662</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.41289151855189</v>
+        <v>125.8311449236958</v>
       </c>
       <c r="AD5" t="n">
-        <v>78707.25973197221</v>
+        <v>101668.5209882585</v>
       </c>
       <c r="AE5" t="n">
-        <v>107690.7450844769</v>
+        <v>139107.3557146662</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.691347249356058e-06</v>
+        <v>7.163347982230663e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>97412.89151855189</v>
+        <v>125831.1449236958</v>
       </c>
     </row>
   </sheetData>
@@ -15759,28 +15759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.9134949408098</v>
+        <v>149.8739870531827</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.8614692866632</v>
+        <v>205.0642010597321</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.9862694109328</v>
+        <v>185.4931615200634</v>
       </c>
       <c r="AD2" t="n">
-        <v>113913.4949408098</v>
+        <v>149873.9870531827</v>
       </c>
       <c r="AE2" t="n">
-        <v>155861.4692866632</v>
+        <v>205064.2010597321</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.676875386863817e-06</v>
+        <v>5.022868174566564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.768229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>140986.2694109328</v>
+        <v>185493.1615200634</v>
       </c>
     </row>
     <row r="3">
@@ -15865,28 +15865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.81171992036256</v>
+        <v>126.6868711781639</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.2526015253192</v>
+        <v>173.3385661761905</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.394107625397</v>
+        <v>156.7953767025888</v>
       </c>
       <c r="AD3" t="n">
-        <v>90811.71992036256</v>
+        <v>126686.8711781639</v>
       </c>
       <c r="AE3" t="n">
-        <v>124252.6015253192</v>
+        <v>173338.5661761905</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.17410258793865e-06</v>
+        <v>5.955861430832268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.86328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>112394.107625397</v>
+        <v>156795.3767025888</v>
       </c>
     </row>
     <row r="4">
@@ -15971,28 +15971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.47731874099051</v>
+        <v>123.3524699987918</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.6903267283067</v>
+        <v>168.7762913791779</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.2672499318169</v>
+        <v>152.6685190090087</v>
       </c>
       <c r="AD4" t="n">
-        <v>87477.31874099051</v>
+        <v>123352.4699987918</v>
       </c>
       <c r="AE4" t="n">
-        <v>119690.3267283067</v>
+        <v>168776.2913791779</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.332767386869347e-06</v>
+        <v>6.253578826600434e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>108267.2499318169</v>
+        <v>152668.5190090087</v>
       </c>
     </row>
     <row r="5">
@@ -16077,28 +16077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.61885992809172</v>
+        <v>108.5072699903198</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.7792572741978</v>
+        <v>148.4644338035945</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.7294474571865</v>
+        <v>134.2951966125613</v>
       </c>
       <c r="AD5" t="n">
-        <v>84618.85992809173</v>
+        <v>108507.2699903198</v>
       </c>
       <c r="AE5" t="n">
-        <v>115779.2572741978</v>
+        <v>148464.4338035945</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.446831434904454e-06</v>
+        <v>6.467607719969656e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>104729.4474571865</v>
+        <v>134295.1966125614</v>
       </c>
     </row>
     <row r="6">
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.84228533533114</v>
+        <v>107.7306953975592</v>
       </c>
       <c r="AB6" t="n">
-        <v>114.7167136563302</v>
+        <v>147.4018901857269</v>
       </c>
       <c r="AC6" t="n">
-        <v>103.7683115109186</v>
+        <v>133.3340606662934</v>
       </c>
       <c r="AD6" t="n">
-        <v>83842.28533533114</v>
+        <v>107730.6953975592</v>
       </c>
       <c r="AE6" t="n">
-        <v>114716.7136563302</v>
+        <v>147401.8901857269</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.481824045314558e-06</v>
+        <v>6.533267582224149e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.43359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>103768.3115109185</v>
+        <v>133334.0606662934</v>
       </c>
     </row>
   </sheetData>
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.09232654253983</v>
+        <v>85.48756457766802</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.48448402804433</v>
+        <v>116.9678573002918</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.89859642960018</v>
+        <v>105.8046091650011</v>
       </c>
       <c r="AD2" t="n">
-        <v>58092.32654253983</v>
+        <v>85487.56457766802</v>
       </c>
       <c r="AE2" t="n">
-        <v>79484.48402804433</v>
+        <v>116967.8573002918</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.01878783319507e-06</v>
+        <v>1.005068338689434e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.94140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>71898.59642960018</v>
+        <v>105804.6091650011</v>
       </c>
     </row>
   </sheetData>
@@ -16777,28 +16777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.565244197182</v>
+        <v>97.27847900043916</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.3917008138367</v>
+        <v>133.1007065919512</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.52414199935369</v>
+        <v>120.3977619628659</v>
       </c>
       <c r="AD2" t="n">
-        <v>75565.24419718199</v>
+        <v>97278.47900043917</v>
       </c>
       <c r="AE2" t="n">
-        <v>103391.7008138368</v>
+        <v>133100.7065919512</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.700267702176092e-06</v>
+        <v>7.619900069703844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.596354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93524.14199935368</v>
+        <v>120397.7619628659</v>
       </c>
     </row>
     <row r="3">
@@ -16883,28 +16883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.94843127846231</v>
+        <v>93.49107388112729</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.44301781592236</v>
+        <v>127.9186118191899</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.04775436123845</v>
+        <v>115.7102390420996</v>
       </c>
       <c r="AD3" t="n">
-        <v>71948.4312784623</v>
+        <v>93491.07388112729</v>
       </c>
       <c r="AE3" t="n">
-        <v>98443.01781592236</v>
+        <v>127918.6118191899</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.967138676890482e-06</v>
+        <v>8.169463053385325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.290364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>89047.75436123845</v>
+        <v>115710.2390420996</v>
       </c>
     </row>
   </sheetData>
@@ -17180,28 +17180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.26957441218411</v>
+        <v>119.792278578282</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.0885229414579</v>
+        <v>163.9050804130784</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.3867411028758</v>
+        <v>148.2622095807247</v>
       </c>
       <c r="AD2" t="n">
-        <v>97269.57441218411</v>
+        <v>119792.278578282</v>
       </c>
       <c r="AE2" t="n">
-        <v>133088.522941458</v>
+        <v>163905.0804130784</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.213530378799666e-06</v>
+        <v>6.366595329209349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.09765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>120386.7411028758</v>
+        <v>148262.2095807247</v>
       </c>
     </row>
     <row r="3">
@@ -17286,28 +17286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.20852194146633</v>
+        <v>99.64588525299257</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.640105919863</v>
+        <v>136.3398962692858</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.55796247771789</v>
+        <v>123.3278079236279</v>
       </c>
       <c r="AD3" t="n">
-        <v>77208.52194146633</v>
+        <v>99645.88525299256</v>
       </c>
       <c r="AE3" t="n">
-        <v>105640.105919863</v>
+        <v>136339.8962692858</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.739383548671351e-06</v>
+        <v>7.408407274489767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>95557.9624777179</v>
+        <v>123327.8079236279</v>
       </c>
     </row>
     <row r="4">
@@ -17392,28 +17392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.96310178325798</v>
+        <v>98.40046509478421</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.9360671153436</v>
+        <v>134.6358574647664</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.01655474506778</v>
+        <v>121.7864001909778</v>
       </c>
       <c r="AD4" t="n">
-        <v>75963.10178325798</v>
+        <v>98400.46509478422</v>
       </c>
       <c r="AE4" t="n">
-        <v>103936.0671153436</v>
+        <v>134635.8574647664</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.810171475384847e-06</v>
+        <v>7.548651190200593e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>94016.55474506778</v>
+        <v>121786.4001909778</v>
       </c>
     </row>
   </sheetData>
